--- a/Course_2/MS/Описательная статистика (Excel).xlsx
+++ b/Course_2/MS/Описательная статистика (Excel).xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivant\Desktop\proj\FU\Course_2\MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9EE0C98-1D85-420D-92A7-1551F7D08B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6970B-E042-405D-83D8-DE5A1260FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Описательная статистика" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Описательная статистика'!$E$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Описательная статистика'!$E$4:$E$252</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Описательная статистика'!$C$4:$C$256</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Описательная статистика'!$D$3:$D$303</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Описательная статистика'!$C$1:$C$252</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Описательная статистика'!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Описательная статистика'!$E$1:$E$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Описательная статистика'!$D$1:$D$299</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="287">
   <si>
     <t xml:space="preserve"> NA</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 182.42814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -203,872'</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,19 +943,20 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1031,36 +1035,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,23 +1072,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1115,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1145,8 +1150,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CB7FAF92-3CA6-4D5B-B000-73ED38FCE58F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>без NA и выбросов</cx:v>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v/>
             </cx:txData>
           </cx:tx>
           <cx:dataLabels pos="r">
@@ -1179,7 +1184,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2296,13 +2301,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390527</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2367,13 +2372,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1840706</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2438,13 +2443,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1922540</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2509,13 +2514,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2580,13 +2585,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2651,13 +2656,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2722,13 +2727,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>938212</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2800,13 +2805,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3500,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KN303"/>
+  <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3518,4400 +3523,2814 @@
     <col min="19" max="19" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:300" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="22">
+        <v>-194.37790000000001</v>
+      </c>
+      <c r="C1">
+        <v>-277.00639999999999</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4">
+        <f>COUNTA(A1:A299)-COUNTA(C1:C252)</f>
         <v>47</v>
       </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>131</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>133</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>134</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>135</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>136</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>137</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>141</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>154</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>155</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>156</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>158</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>160</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>161</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>162</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>181</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>182</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>0</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GX1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GY1" t="s">
-        <v>207</v>
-      </c>
-      <c r="GZ1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HA1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HB1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HD1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HG1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HI1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HJ1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HK1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HU1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HV1" t="s">
-        <v>0</v>
-      </c>
-      <c r="HW1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HX1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HY1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>230</v>
-      </c>
-      <c r="IA1" t="s">
-        <v>231</v>
-      </c>
-      <c r="IB1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IC1" t="s">
-        <v>233</v>
-      </c>
-      <c r="ID1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IE1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IF1" t="s">
-        <v>235</v>
-      </c>
-      <c r="IG1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IH1" t="s">
-        <v>236</v>
-      </c>
-      <c r="II1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IK1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IL1" t="s">
-        <v>240</v>
-      </c>
-      <c r="IM1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IN1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IO1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IP1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IQ1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IR1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IS1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IT1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IV1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IW1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IX1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IY1" t="s">
+      <c r="J1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="Q1" s="2" t="str">
+        <f t="shared" ref="Q1:Q6" ca="1" si="0">_xlfn.FORMULATEXT(I1)</f>
+        <v>=СЧЁТЗ(A1:A299)-СЧЁТЗ(C1:C252)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>-177.70169999999999</v>
+      </c>
+      <c r="C2">
+        <v>-268.35410000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <f>COUNT(C1:C252)</f>
         <v>252</v>
       </c>
-      <c r="IZ1" t="s">
-        <v>253</v>
-      </c>
-      <c r="JA1" t="s">
-        <v>254</v>
-      </c>
-      <c r="JB1" t="s">
-        <v>255</v>
-      </c>
-      <c r="JC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JD1" t="s">
-        <v>256</v>
-      </c>
-      <c r="JE1" t="s">
-        <v>257</v>
-      </c>
-      <c r="JF1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JG1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JH1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JI1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JJ1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JK1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JL1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JM1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JN1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JO1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JP1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JQ1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JR1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JS1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JT1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JU1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JV1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JW1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JX1" t="s">
-        <v>0</v>
-      </c>
-      <c r="JY1" t="s">
-        <v>273</v>
-      </c>
-      <c r="JZ1" t="s">
-        <v>274</v>
-      </c>
-      <c r="KA1" t="s">
-        <v>275</v>
-      </c>
-      <c r="KB1" t="s">
-        <v>276</v>
-      </c>
-      <c r="KC1" t="s">
-        <v>277</v>
-      </c>
-      <c r="KD1" t="s">
-        <v>278</v>
-      </c>
-      <c r="KE1" t="s">
-        <v>279</v>
-      </c>
-      <c r="KF1" t="s">
-        <v>0</v>
-      </c>
-      <c r="KG1" t="s">
-        <v>280</v>
-      </c>
-      <c r="KH1" t="s">
-        <v>281</v>
-      </c>
-      <c r="KI1" t="s">
-        <v>282</v>
-      </c>
-      <c r="KJ1" t="s">
-        <v>283</v>
-      </c>
-      <c r="KK1" t="s">
-        <v>0</v>
-      </c>
-      <c r="KL1" t="s">
-        <v>0</v>
-      </c>
-      <c r="KM1" t="s">
-        <v>284</v>
-      </c>
-      <c r="KN1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:300" x14ac:dyDescent="0.35">
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=СЧЁТ(C1:C252)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-255.031825</v>
+      </c>
+      <c r="H3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:300" x14ac:dyDescent="0.35">
+      <c r="I3" s="8">
+        <f>MIN(C1:C252)</f>
+        <v>-277.00639999999999</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=МИН(C1:C252)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>196.92971</v>
+        <v>-190.9091</v>
       </c>
       <c r="C4">
-        <v>71.076855000000094</v>
-      </c>
-      <c r="E4">
-        <v>129.8169</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
+        <v>-224.00319999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8">
+        <f>MAX(C1:C252)</f>
+        <v>131.41820000000001</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=МАКС(C1:C252)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-170.5325</v>
       </c>
       <c r="C5">
-        <v>100.955645</v>
-      </c>
-      <c r="E5">
-        <v>135.74843000000001</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <f>COUNTA(A4:A303)-COUNTA(C4:C256)</f>
-        <v>47</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="Q5" s="4" t="str">
-        <f t="shared" ref="Q5:Q10" ca="1" si="0">_xlfn.FORMULATEXT(I5)</f>
-        <v>=СЧЁТЗ(A4:A303)-СЧЁТЗ(C4:C256)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-221.2799</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8">
+        <f>I4-I3</f>
+        <v>408.4246</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=I4-I3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>136.07691</v>
+        <v>-168.15350000000001</v>
       </c>
       <c r="C6">
-        <v>129.8169</v>
-      </c>
-      <c r="E6">
-        <v>136.07691</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
-        <f>COUNT(C4:C256)</f>
-        <v>253</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="Q6" s="4" t="str">
+        <v>-219.03440000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <f>_xlfn.QUARTILE.INC(C1:C252,1)</f>
+        <v>-184.9324</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="Q6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=СЧЁТ(C4:C256)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>=КВАРТИЛЬ.ВКЛ(C1:C252;1)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>196.34805</v>
+        <v>-197.19810000000001</v>
       </c>
       <c r="C7">
-        <v>135.74843000000001</v>
-      </c>
-      <c r="E7">
-        <v>137.27055999999999</v>
-      </c>
-      <c r="H7" s="5">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10">
-        <f>MIN(C4:C256)</f>
-        <v>71.076855000000094</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="Q7" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=МИН(C4:C256)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-215.7937</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8">
+        <f>_xlfn.QUARTILE.INC(C1:C252,2)</f>
+        <v>-169.03815</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="Q7" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(I7)</f>
+        <v>=КВАРТИЛЬ.ВКЛ(C1:C252;2)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>199.53461999999999</v>
+        <v>-122.5442</v>
       </c>
       <c r="C8">
-        <v>136.07691</v>
-      </c>
-      <c r="E8">
-        <v>138.64000999999999</v>
-      </c>
-      <c r="H8" s="5">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10">
-        <f>MAX(C4:C256)</f>
-        <v>369.864755</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="Q8" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=МАКС(C4:C256)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-214.8683</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8</v>
+      </c>
+      <c r="I8" s="8">
+        <f>_xlfn.QUARTILE.INC(C1:C252,3)</f>
+        <v>-157.2758</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" ref="Q8:Q22" ca="1" si="1">_xlfn.FORMULATEXT(I8)</f>
+        <v>=КВАРТИЛЬ.ВКЛ(C1:C252;3)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>170.20138</v>
+        <v>-181.6037</v>
       </c>
       <c r="C9">
-        <v>137.27055999999999</v>
-      </c>
-      <c r="E9">
-        <v>141.42246</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="I9" s="10">
-        <f>I8-I7</f>
-        <v>298.78789999999992</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-      <c r="Q9" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=I8-I7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-212.4083</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9</v>
+      </c>
+      <c r="I9" s="8">
+        <f>I8-I6</f>
+        <v>27.656599999999997</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=I8-I6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>197.97725</v>
+        <v>-196.2927</v>
       </c>
       <c r="C10">
-        <v>138.64000999999999</v>
-      </c>
-      <c r="E10">
-        <v>142.65346</v>
-      </c>
-      <c r="H10" s="5">
-        <v>6</v>
-      </c>
-      <c r="I10" s="10">
-        <f>_xlfn.QUARTILE.INC(C4:C256,1)</f>
-        <v>174.98589999999999</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=КВАРТИЛЬ.ВКЛ(C4:C256;1)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>202.09970000000001</v>
+        <v>-212.25880000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8">
+        <f>AVERAGE(C1:C252)</f>
+        <v>-168.82342827380958</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=СРЗНАЧ(C1:C252)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>141.42246</v>
-      </c>
-      <c r="E11">
-        <v>149.79936000000001</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7</v>
-      </c>
-      <c r="I11" s="10">
-        <f>_xlfn.QUARTILE.INC(C4:C256,2)</f>
-        <v>191.20643000000001</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="Q11" s="4" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(I11)</f>
-        <v>=КВАРТИЛЬ.ВКЛ(C4:C256;2)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>0</v>
+        <v>-210.17140000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11</v>
+      </c>
+      <c r="I11" s="8">
+        <f>STDEV(C1:C252)</f>
+        <v>31.520547097752353</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=СТАНДОТКЛОН(C1:C252)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>-87.343199999999996</v>
       </c>
       <c r="C12">
-        <v>142.65346</v>
-      </c>
-      <c r="E12">
-        <v>150.14698000000001</v>
-      </c>
-      <c r="H12" s="5">
-        <v>8</v>
-      </c>
-      <c r="I12" s="10">
-        <f>_xlfn.QUARTILE.INC(C4:C256,3)</f>
-        <v>205.83597</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="Q12" s="4" t="str">
-        <f t="shared" ref="Q12:Q26" ca="1" si="1">_xlfn.FORMULATEXT(I12)</f>
-        <v>=КВАРТИЛЬ.ВКЛ(C4:C256;3)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-209.46440000000001</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3">
+        <v>12</v>
+      </c>
+      <c r="I12" s="8">
+        <f>_xlfn.VAR.S(C1:C252)</f>
+        <v>993.5448893416243</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=ДИСП.В(C1:C252)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>194.73865000000001</v>
+        <v>-207.37710000000001</v>
       </c>
       <c r="C13">
-        <v>149.79936000000001</v>
-      </c>
-      <c r="E13">
-        <v>150.79687999999999</v>
-      </c>
-      <c r="H13" s="5">
-        <v>9</v>
-      </c>
-      <c r="I13" s="10">
-        <f>I12-I10</f>
-        <v>30.850070000000017</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="Q13" s="4" t="str">
+        <v>-208.17009999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>13</v>
+      </c>
+      <c r="I13" s="8">
+        <f>KURT(C1:C252)</f>
+        <v>32.771030122928373</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=I12-I10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>=ЭКСЦЕСС(C1:C252)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>168.11473000000001</v>
+        <v>-143.9177</v>
       </c>
       <c r="C14">
-        <v>150.14698000000001</v>
-      </c>
-      <c r="E14">
-        <v>151.12891999999999</v>
-      </c>
-      <c r="H14" s="5">
-        <v>10</v>
-      </c>
-      <c r="I14" s="10">
-        <f>AVERAGE(C4:C256)</f>
-        <v>190.71426509881437</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="Q14" s="4" t="str">
+        <v>-207.37710000000001</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14</v>
+      </c>
+      <c r="I14" s="8">
+        <f>SKEW(C1:C252)</f>
+        <v>3.2396704492948087</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="Q14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=СРЗНАЧ(C4:C256)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>=СКОС(C1:C252)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>137.27055999999999</v>
+        <v>-189.7354</v>
       </c>
       <c r="C15">
-        <v>150.79687999999999</v>
-      </c>
-      <c r="E15">
-        <v>152.41687999999999</v>
-      </c>
-      <c r="H15" s="5">
-        <v>11</v>
-      </c>
-      <c r="I15" s="10">
-        <f>STDEV(C4:C256)</f>
-        <v>28.526739179764981</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="Q15" s="4" t="str">
+        <v>-206.4914</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15</v>
+      </c>
+      <c r="I15" s="8">
+        <f>I9/I11</f>
+        <v>0.87741497361167686</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=СТАНДОТКЛОН(C4:C256)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
+        <v>=I9/I11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>227.51420999999999</v>
+        <v>-194.9819</v>
       </c>
       <c r="C16">
-        <v>151.12891999999999</v>
-      </c>
-      <c r="E16">
-        <v>152.91777999999999</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
-        <v>12</v>
-      </c>
-      <c r="I16" s="10">
-        <f>_xlfn.VAR.S(C4:C256)</f>
-        <v>813.77484823033831</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="Q16" s="4" t="str">
+        <v>-206.06360000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8">
+        <f>_xlfn.PERCENTILE.INC(C1:C252,0.63)</f>
+        <v>-163.818603</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=ДИСП.В(C4:C256)</v>
+        <v>=ПРОЦЕНТИЛЬ.ВКЛ(C1:C252;0,63)</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>187.43231</v>
+        <v>-165.56950000000001</v>
       </c>
       <c r="C17">
-        <v>152.41687999999999</v>
-      </c>
-      <c r="E17">
-        <v>153.89931999999999</v>
-      </c>
-      <c r="H17" s="5">
-        <v>13</v>
-      </c>
-      <c r="I17" s="10">
-        <f>KURT(C4:C256)</f>
-        <v>9.0932953243799517</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="Q17" s="4" t="str">
+        <v>-205.88990000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>17</v>
+      </c>
+      <c r="I17" s="8" t="e">
+        <f>_xlfn.MODE.SNGL(C1:C252)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=ЭКСЦЕСС(C4:C256)</v>
+        <v>=МОДА.ОДН(C1:C252)</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>135.74843000000001</v>
+        <v>-165.30430000000001</v>
       </c>
       <c r="C18">
-        <v>152.91777999999999</v>
-      </c>
-      <c r="E18">
-        <v>154.62618000000001</v>
-      </c>
-      <c r="H18" s="5">
-        <v>14</v>
-      </c>
-      <c r="I18" s="10">
-        <f>SKEW(C4:C256)</f>
-        <v>1.0793758458029881</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="Q18" s="11" t="str">
+        <v>-204.99109999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>18</v>
+      </c>
+      <c r="I18" s="4">
+        <f>COUNTIF(C1:C252,I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=СКОС(C4:C256)</v>
+        <v>=СЧЁТЕСЛИ(C1:C252;I17)</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>168.04958999999999</v>
+        <v>171.84950000000001</v>
       </c>
       <c r="C19">
-        <v>153.89931999999999</v>
-      </c>
-      <c r="E19">
-        <v>155.43352999999999</v>
-      </c>
-      <c r="H19" s="5">
-        <v>15</v>
-      </c>
-      <c r="I19" s="10">
-        <f>I13/I15</f>
-        <v>1.0814439675559924</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="Q19" s="4" t="str">
+        <v>-204.1557</v>
+      </c>
+      <c r="H19" s="3">
+        <v>19</v>
+      </c>
+      <c r="I19" s="8">
+        <f>I8+1.5*I9</f>
+        <v>-115.79090000000001</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=I13/I15</v>
+        <v>=I8+1,5*I9</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>158.53353999999999</v>
+        <v>-168.14250000000001</v>
       </c>
       <c r="C20">
-        <v>154.62618000000001</v>
-      </c>
-      <c r="E20">
-        <v>156.27619999999999</v>
-      </c>
-      <c r="H20" s="5">
-        <v>16</v>
-      </c>
-      <c r="I20" s="10">
-        <f>_xlfn.PERCENTILE.INC(C4:C256,0.63)</f>
-        <v>197.50348679999999</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="Q20" s="4" t="str">
+        <v>-202.8399</v>
+      </c>
+      <c r="H20" s="3">
+        <v>20</v>
+      </c>
+      <c r="I20" s="8">
+        <f>I6-1.5*I9</f>
+        <v>-226.41730000000001</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+      <c r="Q20" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=ПРОЦЕНТИЛЬ.ВКЛ(C4:C256;0,63)</v>
+        <v>=I6-1,5*I9</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>186.88781</v>
+        <v>-169.1902</v>
       </c>
       <c r="C21">
-        <v>155.43352999999999</v>
-      </c>
-      <c r="E21">
-        <v>156.48681999999999</v>
-      </c>
-      <c r="H21" s="5">
-        <v>17</v>
-      </c>
-      <c r="I21" s="10" t="e">
-        <f>_xlfn.MODE.SNGL(C4:C256)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="Q21" s="4" t="str">
+        <v>-202.8279</v>
+      </c>
+      <c r="H21" s="3">
+        <v>21</v>
+      </c>
+      <c r="I21" s="8">
+        <f>COUNTIF(C1:C252,"&lt;"&amp;I20)</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="Q21" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=МОДА.ОДН(C4:C256)</v>
+        <v>=СЧЁТЕСЛИ(C1:C252;"&lt;"&amp;I20)</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>207.99242000000001</v>
+        <v>-151.12960000000001</v>
       </c>
       <c r="C22">
-        <v>156.27619999999999</v>
-      </c>
-      <c r="E22">
-        <v>156.97354999999999</v>
-      </c>
-      <c r="H22" s="5">
-        <v>18</v>
-      </c>
-      <c r="I22" s="6">
-        <f>COUNTIF(C4:C256,I21)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="Q22" s="4" t="str">
+        <v>-202.57079999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>22</v>
+      </c>
+      <c r="I22" s="8">
+        <f>COUNTIF(C1:C252,"&gt;"&amp;I19)</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+      <c r="Q22" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=СЧЁТЕСЛИ(C4:C256;I21)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+        <v>=СЧЁТЕСЛИ(C1:C252;"&gt;"&amp;I19)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>174.98589999999999</v>
+        <v>-208.17009999999999</v>
       </c>
       <c r="C23">
-        <v>156.48681999999999</v>
-      </c>
-      <c r="E23">
-        <v>157.3706</v>
-      </c>
-      <c r="H23" s="5">
-        <v>19</v>
-      </c>
-      <c r="I23" s="10">
-        <f>I12+1.5*I13</f>
-        <v>252.11107500000003</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
-      <c r="Q23" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=I12+1,5*I13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+        <v>-200.2</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>200.20625000000001</v>
+        <v>-169.2235</v>
       </c>
       <c r="C24">
-        <v>156.97354999999999</v>
-      </c>
-      <c r="E24">
-        <v>157.46312</v>
-      </c>
-      <c r="H24" s="5">
-        <v>20</v>
-      </c>
-      <c r="I24" s="10">
-        <f>I10-1.5*I13</f>
-        <v>128.71079499999996</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="Q24" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=I10-1,5*I13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>0</v>
+        <v>-198.96449999999999</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>-189.7955</v>
       </c>
       <c r="C25">
-        <v>157.3706</v>
-      </c>
-      <c r="E25">
-        <v>157.48724000000001</v>
-      </c>
-      <c r="H25" s="5">
-        <v>21</v>
-      </c>
-      <c r="I25" s="10">
-        <f>COUNTIF(C4:C256,"&lt;"&amp;I24)</f>
-        <v>2</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="Q25" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=СЧЁТЕСЛИ(C4:C256;"&lt;"&amp;I24)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>224.08094</v>
+        <v>-198.2757</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>157.46312</v>
-      </c>
-      <c r="E26">
-        <v>158.3426</v>
-      </c>
-      <c r="H26" s="5">
-        <v>22</v>
-      </c>
-      <c r="I26" s="10">
-        <f>COUNTIF(C4:C256,"&gt;"&amp;I23)</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="Q26" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=СЧЁТЕСЛИ(C4:C256;"&gt;"&amp;I23)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+        <v>-197.20189999999999</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>170.5565</v>
+        <v>-172.3725</v>
       </c>
       <c r="C27">
-        <v>157.48724000000001</v>
-      </c>
-      <c r="E27">
-        <v>158.53353999999999</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>-197.19810000000001</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>158.73609999999999</v>
+        <v>183.02719999999999</v>
       </c>
       <c r="C28">
-        <v>158.3426</v>
-      </c>
-      <c r="E28">
-        <v>158.73609999999999</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>-197.02209999999999</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>180.90280000000001</v>
+        <v>-221.2799</v>
       </c>
       <c r="C29">
-        <v>158.53353999999999</v>
-      </c>
-      <c r="E29">
-        <v>159.37454</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="13"/>
+        <v>-196.7869</v>
+      </c>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>182.55506</v>
+        <v>-139.18680000000001</v>
       </c>
       <c r="C30">
-        <v>158.73609999999999</v>
-      </c>
-      <c r="E30">
-        <v>159.39529999999999</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.4">
+        <v>-196.2927</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>221.78380000000001</v>
+        <v>-160.08799999999999</v>
       </c>
       <c r="C31">
-        <v>159.37454</v>
-      </c>
-      <c r="E31">
-        <v>159.57486</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="13"/>
+        <v>-196.0557</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>0</v>
+      <c r="A32">
+        <v>-124.0217</v>
       </c>
       <c r="C32">
-        <v>159.39529999999999</v>
-      </c>
-      <c r="E32">
-        <v>161.94313</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>0</v>
+        <v>-195.6848</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>-117.0158</v>
       </c>
       <c r="C33">
-        <v>159.57486</v>
-      </c>
-      <c r="E33">
-        <v>163.63176000000001</v>
-      </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>0</v>
+        <v>-194.9819</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>-196.7869</v>
       </c>
       <c r="C34">
-        <v>161.94313</v>
-      </c>
-      <c r="E34">
-        <v>163.68817999999999</v>
-      </c>
-      <c r="H34" s="13"/>
+        <v>-194.74600000000001</v>
+      </c>
+      <c r="H34" s="11"/>
       <c r="I34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>239.06613999999999</v>
+        <v>-168.87469999999999</v>
       </c>
       <c r="C35">
-        <v>163.63176000000001</v>
-      </c>
-      <c r="E35">
-        <v>164.21772999999999</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-194.47800000000001</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>158.3426</v>
-      </c>
-      <c r="C36">
-        <v>163.68817999999999</v>
-      </c>
-      <c r="E36">
-        <v>164.48166000000001</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.4">
+        <v>199.7569</v>
+      </c>
+      <c r="C36" s="22">
+        <v>-194.37790000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>195.57570000000001</v>
+        <v>-170.2329</v>
       </c>
       <c r="C37">
-        <v>164.21772999999999</v>
-      </c>
-      <c r="E37">
-        <v>164.60034999999999</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="L37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-194.06020000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>164.48166000000001</v>
+        <v>-157.59819999999999</v>
       </c>
       <c r="C38">
-        <v>164.48166000000001</v>
-      </c>
-      <c r="E38">
-        <v>165.10735</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-193.18979999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>166.60758999999999</v>
+        <v>-182.60169999999999</v>
       </c>
       <c r="C39">
-        <v>164.60034999999999</v>
-      </c>
-      <c r="E39">
-        <v>165.82588999999999</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>247.77945</v>
+        <v>-193.09639999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>165.10735</v>
-      </c>
-      <c r="E40">
-        <v>166.40736999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-192.1052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>190.90885</v>
+        <v>-198.2757</v>
       </c>
       <c r="C41">
-        <v>165.82588999999999</v>
-      </c>
-      <c r="E41">
-        <v>166.60758999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>0</v>
+        <v>-191.59059999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>-173.33410000000001</v>
       </c>
       <c r="C42">
-        <v>166.40736999999999</v>
-      </c>
-      <c r="E42">
-        <v>166.65370999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-191.2921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>339.98596500000002</v>
+        <v>-197.02209999999999</v>
       </c>
       <c r="C43">
-        <v>166.60758999999999</v>
-      </c>
-      <c r="E43">
-        <v>167.24265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-190.9091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>174.58393000000001</v>
+        <v>-176.61699999999999</v>
       </c>
       <c r="C44">
-        <v>166.65370999999999</v>
-      </c>
-      <c r="E44">
-        <v>167.85524000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>0</v>
+        <v>-190.1326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>174.47929999999999</v>
       </c>
       <c r="C45">
-        <v>167.24265</v>
-      </c>
-      <c r="E45">
-        <v>168.04958999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-189.7955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>196.03864999999999</v>
+        <v>-183.01949999999999</v>
       </c>
       <c r="C46">
-        <v>167.85524000000001</v>
-      </c>
-      <c r="E46">
-        <v>168.10607999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>0</v>
+        <v>-189.7354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>-137.05510000000001</v>
       </c>
       <c r="C47">
-        <v>168.04958999999999</v>
-      </c>
-      <c r="E47">
-        <v>168.11473000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-189.55260000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>203.91763</v>
+        <v>-166.65</v>
       </c>
       <c r="C48">
-        <v>168.10607999999999</v>
-      </c>
-      <c r="E48">
-        <v>168.14252999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-189.45099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>170.67959999999999</v>
+        <v>-161.1568</v>
       </c>
       <c r="C49">
-        <v>168.11473000000001</v>
-      </c>
-      <c r="E49">
-        <v>169.85218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>0</v>
+        <v>-189.44069999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>-204.99109999999999</v>
       </c>
       <c r="C50">
-        <v>168.14252999999999</v>
-      </c>
-      <c r="E50">
-        <v>170.20138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-189.36080000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>223.15341000000001</v>
+        <v>-137.60509999999999</v>
       </c>
       <c r="C51">
-        <v>169.85218</v>
-      </c>
-      <c r="E51">
-        <v>170.24959000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-189.2962</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>222.04769999999999</v>
+        <v>-85.022000000000006</v>
       </c>
       <c r="C52">
-        <v>170.20138</v>
-      </c>
-      <c r="E52">
-        <v>170.5565</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-189.19659999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>208.74949000000001</v>
+        <v>-174.6369</v>
       </c>
       <c r="C53">
-        <v>170.24959000000001</v>
-      </c>
-      <c r="E53">
-        <v>170.67867000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-188.4408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>212.50459000000001</v>
+        <v>-156.73339999999999</v>
       </c>
       <c r="C54">
-        <v>170.5565</v>
-      </c>
-      <c r="E54">
-        <v>170.67959999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-187.48230000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>198.35273000000001</v>
+        <v>-154.66540000000001</v>
       </c>
       <c r="C55">
-        <v>170.67867000000001</v>
-      </c>
-      <c r="E55">
-        <v>171.1902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>0</v>
+        <v>-187.417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>-181.0034</v>
       </c>
       <c r="C56">
-        <v>170.67959999999999</v>
-      </c>
-      <c r="E56">
-        <v>171.81450000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-187.3903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>152.41687999999999</v>
+        <v>-165.96789999999999</v>
       </c>
       <c r="C57">
-        <v>171.1902</v>
-      </c>
-      <c r="E57">
-        <v>172.04329999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>0</v>
+        <v>-187.1473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>-185.80009999999999</v>
       </c>
       <c r="C58">
-        <v>171.81450000000001</v>
-      </c>
-      <c r="E58">
-        <v>172.39672999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-186.2946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>369.864755</v>
+        <v>-164.50370000000001</v>
       </c>
       <c r="C59">
-        <v>172.04329999999999</v>
-      </c>
-      <c r="E59">
-        <v>173.17187999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-185.80009999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>230.89599999999999</v>
+        <v>-191.59059999999999</v>
       </c>
       <c r="C60">
-        <v>172.39672999999999</v>
-      </c>
-      <c r="E60">
-        <v>173.75702999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-185.4153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>182.36958999999999</v>
+        <v>-164.71799999999999</v>
       </c>
       <c r="C61">
-        <v>173.17187999999999</v>
-      </c>
-      <c r="E61">
-        <v>173.94611</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-185.06909999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>153.89931999999999</v>
+        <v>205.4555</v>
       </c>
       <c r="C62">
-        <v>173.75702999999999</v>
-      </c>
-      <c r="E62">
-        <v>174.58393000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-185.05699999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>240.00281000000001</v>
+        <v>-160.30670000000001</v>
       </c>
       <c r="C63">
-        <v>173.94611</v>
-      </c>
-      <c r="E63">
-        <v>174.66107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>0</v>
+        <v>-184.96690000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>-212.25880000000001</v>
       </c>
       <c r="C64">
-        <v>174.58393000000001</v>
-      </c>
-      <c r="E64">
-        <v>174.78005999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-184.92089999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>217.4074</v>
+        <v>-161.57470000000001</v>
       </c>
       <c r="C65">
-        <v>174.66107</v>
-      </c>
-      <c r="E65">
-        <v>174.98589999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-184.49109999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>219.50106</v>
+        <v>-189.36080000000001</v>
       </c>
       <c r="C66">
-        <v>174.78005999999999</v>
-      </c>
-      <c r="E66">
-        <v>175.87486000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-184.423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>170.24959000000001</v>
+        <v>-146.8366</v>
       </c>
       <c r="C67">
-        <v>174.98589999999999</v>
-      </c>
-      <c r="E67">
-        <v>176.02459999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>0</v>
+        <v>-184.17259999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>-194.06020000000001</v>
       </c>
       <c r="C68">
-        <v>175.87486000000001</v>
-      </c>
-      <c r="E68">
-        <v>176.20312000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-183.56720000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>184.27259000000001</v>
+        <v>-166.79689999999999</v>
       </c>
       <c r="C69">
-        <v>176.02459999999999</v>
-      </c>
-      <c r="E69">
-        <v>176.32943</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-183.01949999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>178.06786</v>
+        <v>191.30170000000001</v>
       </c>
       <c r="C70">
-        <v>176.20312000000001</v>
-      </c>
-      <c r="E70">
-        <v>176.66681</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-182.62960000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>186.45008000000001</v>
+        <v>-162.06659999999999</v>
       </c>
       <c r="C71">
-        <v>176.32943</v>
-      </c>
-      <c r="E71">
-        <v>176.80615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>0</v>
+        <v>-182.60169999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>-168.4299</v>
       </c>
       <c r="C72">
-        <v>176.66681</v>
-      </c>
-      <c r="E72">
-        <v>177.01227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-181.6037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>171.81450000000001</v>
+        <v>-210.17140000000001</v>
       </c>
       <c r="C73">
-        <v>176.80615</v>
-      </c>
-      <c r="E73">
-        <v>177.65018000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>200.80527000000001</v>
+        <v>-181.56649999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>177.01227</v>
-      </c>
-      <c r="E74">
-        <v>177.74897999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-181.16419999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>201.05794</v>
+        <v>-154.08240000000001</v>
       </c>
       <c r="C75">
-        <v>177.65018000000001</v>
-      </c>
-      <c r="E75">
-        <v>177.76786999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-181.0034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>183.38469000000001</v>
+        <v>-168.8861</v>
       </c>
       <c r="C76">
-        <v>177.74897999999999</v>
-      </c>
-      <c r="E76">
-        <v>178.06786</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-180.9425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>173.17187999999999</v>
+        <v>-181.16419999999999</v>
       </c>
       <c r="C77">
-        <v>177.76786999999999</v>
-      </c>
-      <c r="E77">
-        <v>178.2801</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-180.7133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>129.8169</v>
+        <v>-167.26570000000001</v>
       </c>
       <c r="C78">
-        <v>178.06786</v>
-      </c>
-      <c r="E78">
-        <v>178.9495</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-179.40039999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>182.97317000000001</v>
+        <v>188.7629</v>
       </c>
       <c r="C79">
-        <v>178.2801</v>
-      </c>
-      <c r="E79">
-        <v>179.31733</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-179.3092</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>180.65213</v>
+        <v>-143.89320000000001</v>
       </c>
       <c r="C80">
-        <v>178.9495</v>
-      </c>
-      <c r="E80">
-        <v>179.39779999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-178.56659999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>214.35604000000001</v>
+        <v>-184.17259999999999</v>
       </c>
       <c r="C81">
-        <v>179.31733</v>
-      </c>
-      <c r="E81">
-        <v>179.52197000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-178.56489999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>198.06513000000001</v>
+        <v>-148.41499999999999</v>
       </c>
       <c r="C82">
-        <v>179.39779999999999</v>
-      </c>
-      <c r="E82">
-        <v>179.80240000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-177.95670000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>195.32153</v>
+        <v>-163.21360000000001</v>
       </c>
       <c r="C83">
-        <v>179.52197000000001</v>
-      </c>
-      <c r="E83">
-        <v>179.95669000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-177.94630000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>186.26797999999999</v>
+        <v>-179.3092</v>
       </c>
       <c r="C84">
-        <v>179.80240000000001</v>
-      </c>
-      <c r="E84">
-        <v>180.61912000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>0</v>
+        <v>-177.8253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>-158.34530000000001</v>
       </c>
       <c r="C85">
-        <v>179.95669000000001</v>
-      </c>
-      <c r="E85">
-        <v>180.63413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>0</v>
+        <v>-177.70169999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>-152.92699999999999</v>
       </c>
       <c r="C86">
-        <v>180.61912000000001</v>
-      </c>
-      <c r="E86">
-        <v>180.65213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>0</v>
+        <v>-177.69900000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>169.35169999999999</v>
       </c>
       <c r="C87">
-        <v>180.63413</v>
-      </c>
-      <c r="E87">
-        <v>180.90280000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>0</v>
+        <v>-177.4579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>-144.05860000000001</v>
       </c>
       <c r="C88">
-        <v>180.65213</v>
-      </c>
-      <c r="E88">
-        <v>180.91973999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-176.994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>219.56084999999999</v>
+        <v>-166.08670000000001</v>
       </c>
       <c r="C89">
-        <v>180.90280000000001</v>
-      </c>
-      <c r="E89">
-        <v>181.23446000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-176.7473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>195.18917999999999</v>
+        <v>-157.71469999999999</v>
       </c>
       <c r="C90">
-        <v>180.91973999999999</v>
-      </c>
-      <c r="E90">
-        <v>181.28784999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-176.61699999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>184.03913</v>
+        <v>-159.91569999999999</v>
       </c>
       <c r="C91">
-        <v>181.23446000000001</v>
-      </c>
-      <c r="E91">
-        <v>181.82472999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-176.5829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>171.1902</v>
+        <v>-147.8518</v>
       </c>
       <c r="C92">
-        <v>181.28784999999999</v>
-      </c>
-      <c r="E92">
-        <v>182.17527999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-176.41589999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>200.14447000000001</v>
+        <v>-175.88720000000001</v>
       </c>
       <c r="C93">
-        <v>181.82472999999999</v>
-      </c>
-      <c r="E93">
-        <v>182.36958999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-176.36199999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>192.77744999999999</v>
+        <v>-124.973</v>
       </c>
       <c r="C94">
-        <v>182.17527999999999</v>
-      </c>
-      <c r="E94">
-        <v>182.42814000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-176.3202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>179.95669000000001</v>
+        <v>149.99449999999999</v>
       </c>
       <c r="C95">
-        <v>182.36958999999999</v>
-      </c>
-      <c r="E95">
-        <v>182.55506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-175.88720000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>177.76786999999999</v>
+        <v>-255.031825</v>
       </c>
       <c r="C96">
-        <v>182.42814000000001</v>
-      </c>
-      <c r="E96">
-        <v>182.79758000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-175.851</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>193.05699000000001</v>
+        <v>-130.52019999999999</v>
       </c>
       <c r="C97">
-        <v>182.55506</v>
-      </c>
-      <c r="E97">
-        <v>182.85024000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-175.7604</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>216.59227999999999</v>
+        <v>-209.46440000000001</v>
       </c>
       <c r="C98">
-        <v>182.79758000000001</v>
-      </c>
-      <c r="E98">
-        <v>182.97317000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-175.7593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>192.21672000000001</v>
+        <v>-125.7248</v>
       </c>
       <c r="C99">
-        <v>182.85024000000001</v>
-      </c>
-      <c r="E99">
-        <v>182.98615000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-175.60159999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>202.00828999999999</v>
+        <v>-165.95670000000001</v>
       </c>
       <c r="C100">
-        <v>182.97317000000001</v>
-      </c>
-      <c r="E100">
-        <v>183.23624000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>196.74733000000001</v>
+        <v>-175.5419</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>182.98615000000001</v>
-      </c>
-      <c r="E101">
-        <v>183.38469000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-174.6369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>169.85218</v>
+        <v>-163.10679999999999</v>
       </c>
       <c r="C102">
-        <v>183.23624000000001</v>
-      </c>
-      <c r="E102">
-        <v>183.56996000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-174.11789999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>198.18508</v>
+        <v>-157.76179999999999</v>
       </c>
       <c r="C103">
-        <v>183.38469000000001</v>
-      </c>
-      <c r="E103">
-        <v>183.6953</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>0</v>
+        <v>-173.49029999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>-177.4579</v>
       </c>
       <c r="C104">
-        <v>183.56996000000001</v>
-      </c>
-      <c r="E104">
-        <v>184.03913</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-173.33410000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>213.06066000000001</v>
+        <v>-193.18979999999999</v>
       </c>
       <c r="C105">
-        <v>183.6953</v>
-      </c>
-      <c r="E105">
-        <v>184.27259000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-173.31010000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>205.42989</v>
+        <v>-172.97200000000001</v>
       </c>
       <c r="C106">
-        <v>184.03913</v>
-      </c>
-      <c r="E106">
-        <v>184.69483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-173.25909999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>159.57486</v>
+        <v>-172.58959999999999</v>
       </c>
       <c r="C107">
-        <v>184.27259000000001</v>
-      </c>
-      <c r="E107">
-        <v>184.85755</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-172.97200000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>197.35776000000001</v>
+        <v>-145.9725</v>
       </c>
       <c r="C108">
-        <v>184.69483</v>
-      </c>
-      <c r="E108">
-        <v>185.34329</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-172.7585</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>168.14252999999999</v>
+        <v>-164.55770000000001</v>
       </c>
       <c r="C109">
-        <v>184.85755</v>
-      </c>
-      <c r="E109">
-        <v>185.39636999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-172.58959999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>197.65186</v>
+        <v>-124.04170000000001</v>
       </c>
       <c r="C110">
-        <v>185.34329</v>
-      </c>
-      <c r="E110">
-        <v>185.62296000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>0</v>
+        <v>-172.56039999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>-160.34649999999999</v>
       </c>
       <c r="C111">
-        <v>185.39636999999999</v>
-      </c>
-      <c r="E111">
-        <v>185.85410999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>0</v>
+        <v>-172.3879</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>134.83410000000001</v>
       </c>
       <c r="C112">
-        <v>185.62296000000001</v>
-      </c>
-      <c r="E112">
-        <v>186.19104999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-172.3725</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>206.67509999999999</v>
+        <v>-161.69839999999999</v>
       </c>
       <c r="C113">
-        <v>185.85410999999999</v>
-      </c>
-      <c r="E113">
-        <v>186.26797999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-172.12909999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>142.65346</v>
+        <v>-165.97880000000001</v>
       </c>
       <c r="C114">
-        <v>186.19104999999999</v>
-      </c>
-      <c r="E114">
-        <v>186.45008000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>200.02902</v>
+        <v>-172.095</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>186.26797999999999</v>
-      </c>
-      <c r="E115">
-        <v>186.88781</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-171.8417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>197.99453</v>
+        <v>-143.0549</v>
       </c>
       <c r="C116">
-        <v>186.45008000000001</v>
-      </c>
-      <c r="E116">
-        <v>187.43231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-171.8288</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>182.79758000000001</v>
+        <v>-132.85400000000001</v>
       </c>
       <c r="C117">
-        <v>186.88781</v>
-      </c>
-      <c r="E117">
-        <v>187.51613</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>0</v>
+        <v>-171.28149999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>-137.7801</v>
       </c>
       <c r="C118">
-        <v>187.43231</v>
-      </c>
-      <c r="E118">
-        <v>187.65472</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-170.91980000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>199.8229</v>
+        <v>-193.09639999999999</v>
       </c>
       <c r="C119">
-        <v>187.51613</v>
-      </c>
-      <c r="E119">
-        <v>187.71602999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-170.7604</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>215.48278999999999</v>
+        <v>-184.96690000000001</v>
       </c>
       <c r="C120">
-        <v>187.65472</v>
-      </c>
-      <c r="E120">
-        <v>187.80020999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-170.5325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>185.62296000000001</v>
+        <v>151.5307</v>
       </c>
       <c r="C121">
-        <v>187.71602999999999</v>
-      </c>
-      <c r="E121">
-        <v>188.26786000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-170.50640000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>157.46312</v>
+        <v>-185.05699999999999</v>
       </c>
       <c r="C122">
-        <v>187.80020999999999</v>
-      </c>
-      <c r="E122">
-        <v>188.99502000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-170.2329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>229.69704999999999</v>
+        <v>-204.1557</v>
       </c>
       <c r="C123">
-        <v>188.26786000000001</v>
-      </c>
-      <c r="E123">
-        <v>189.23265000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-169.85120000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>210.81753</v>
+        <v>-170.7604</v>
       </c>
       <c r="C124">
-        <v>188.99502000000001</v>
-      </c>
-      <c r="E124">
-        <v>190.70636999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-169.5874</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>200.34913</v>
+        <v>-162.62739999999999</v>
       </c>
       <c r="C125">
-        <v>189.23265000000001</v>
-      </c>
-      <c r="E125">
-        <v>190.79778999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-169.2235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>192.05463</v>
+        <v>-170.91980000000001</v>
       </c>
       <c r="C126">
-        <v>190.70636999999999</v>
-      </c>
-      <c r="E126">
-        <v>190.90885</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-169.1902</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>71.076855000000094</v>
+        <v>-139.1593</v>
       </c>
       <c r="C127">
-        <v>190.79778999999999</v>
-      </c>
-      <c r="E127">
-        <v>190.95448999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-168.8861</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>157.48724000000001</v>
+        <v>-187.48230000000001</v>
       </c>
       <c r="C128">
-        <v>190.90885</v>
-      </c>
-      <c r="E128">
-        <v>191.20643000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>0</v>
+        <v>-168.87469999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>223.7508</v>
       </c>
       <c r="C129">
-        <v>190.95448999999999</v>
-      </c>
-      <c r="E129">
-        <v>191.34718000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-168.66640000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>178.2801</v>
+        <v>-189.2962</v>
       </c>
       <c r="C130">
-        <v>191.20643000000001</v>
-      </c>
-      <c r="E130">
-        <v>191.46474000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-168.63210000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>179.39779999999999</v>
+        <v>-164.17439999999999</v>
       </c>
       <c r="C131">
-        <v>191.34718000000001</v>
-      </c>
-      <c r="E131">
-        <v>191.90226000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-168.61529999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>181.28784999999999</v>
+        <v>-162.92359999999999</v>
       </c>
       <c r="C132">
-        <v>191.46474000000001</v>
-      </c>
-      <c r="E132">
-        <v>192.05463</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-168.4299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>183.23624000000001</v>
+        <v>-146.31649999999999</v>
       </c>
       <c r="C133">
-        <v>191.90226000000001</v>
-      </c>
-      <c r="E133">
-        <v>192.21672000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>197.99603999999999</v>
+        <v>-168.26859999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>192.05463</v>
-      </c>
-      <c r="E134">
-        <v>192.77744999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-168.15350000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>190.79778999999999</v>
+        <v>-163.47649999999999</v>
       </c>
       <c r="C135">
-        <v>192.21672000000001</v>
-      </c>
-      <c r="E135">
-        <v>193.05699000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-168.14250000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>174.78005999999999</v>
+        <v>-163.3982</v>
       </c>
       <c r="C136">
-        <v>192.77744999999999</v>
-      </c>
-      <c r="E136">
-        <v>193.1447</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-167.4255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>176.66681</v>
+        <v>-163.5342</v>
       </c>
       <c r="C137">
-        <v>193.05699000000001</v>
-      </c>
-      <c r="E137">
-        <v>193.17268999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-167.26570000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>188.99502000000001</v>
+        <v>198.4725</v>
       </c>
       <c r="C138">
-        <v>193.1447</v>
-      </c>
-      <c r="E138">
-        <v>194.31793999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-167.06120000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>166.40736999999999</v>
+        <v>-202.57079999999999</v>
       </c>
       <c r="C139">
-        <v>193.17268999999999</v>
-      </c>
-      <c r="E139">
-        <v>194.35029</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-166.79689999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>168.10607999999999</v>
+        <v>-178.56489999999999</v>
       </c>
       <c r="C140">
-        <v>194.31793999999999</v>
-      </c>
-      <c r="E140">
-        <v>194.69737000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-166.70150000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>174.66107</v>
+        <v>-224.00319999999999</v>
       </c>
       <c r="C141">
-        <v>194.35029</v>
-      </c>
-      <c r="E141">
-        <v>194.73865000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-166.65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>166.65370999999999</v>
+        <v>-168.66640000000001</v>
       </c>
       <c r="C142">
-        <v>194.69737000000001</v>
-      </c>
-      <c r="E142">
-        <v>195.09281999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>0</v>
+        <v>-166.33090000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>-195.6848</v>
       </c>
       <c r="C143">
-        <v>194.73865000000001</v>
-      </c>
-      <c r="E143">
-        <v>195.10684000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-166.08670000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>195.34542999999999</v>
+        <v>-158.2784</v>
       </c>
       <c r="C144">
-        <v>195.09281999999999</v>
-      </c>
-      <c r="E144">
-        <v>195.18917999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.97880000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>194.31793999999999</v>
+        <v>-132.0059</v>
       </c>
       <c r="C145">
-        <v>195.10684000000001</v>
-      </c>
-      <c r="E145">
-        <v>195.25196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.96789999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>150.14698000000001</v>
+        <v>162.55789999999999</v>
       </c>
       <c r="C146">
-        <v>195.18917999999999</v>
-      </c>
-      <c r="E146">
-        <v>195.32153</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.95670000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>218.22001</v>
+        <v>-143.53229999999999</v>
       </c>
       <c r="C147">
-        <v>195.25196</v>
-      </c>
-      <c r="E147">
-        <v>195.34542999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.56950000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>219.45563999999999</v>
+        <v>-175.7604</v>
       </c>
       <c r="C148">
-        <v>195.32153</v>
-      </c>
-      <c r="E148">
-        <v>195.50794999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.51150000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>230.20715000000001</v>
+        <v>-177.95670000000001</v>
       </c>
       <c r="C149">
-        <v>195.34542999999999</v>
-      </c>
-      <c r="E149">
-        <v>195.57284000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.44630000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>165.10735</v>
+        <v>-151.2079</v>
       </c>
       <c r="C150">
-        <v>195.50794999999999</v>
-      </c>
-      <c r="E150">
-        <v>195.57570000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.30430000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>207.49599000000001</v>
+        <v>-125.5979</v>
       </c>
       <c r="C151">
-        <v>195.57284000000001</v>
-      </c>
-      <c r="E151">
-        <v>195.75397000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-165.2698</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>182.98615000000001</v>
+        <v>-187.1473</v>
       </c>
       <c r="C152">
-        <v>195.57570000000001</v>
-      </c>
-      <c r="E152">
-        <v>195.86928</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>194.35029</v>
+        <v>-165.0078</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>195.75397000000001</v>
-      </c>
-      <c r="E153">
-        <v>196.03864999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-164.92189999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>154.62618000000001</v>
+        <v>-175.7593</v>
       </c>
       <c r="C154">
-        <v>195.86928</v>
-      </c>
-      <c r="E154">
-        <v>196.34805</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-164.71799999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>150.79687999999999</v>
+        <v>151.24</v>
       </c>
       <c r="C155">
-        <v>196.03864999999999</v>
-      </c>
-      <c r="E155">
-        <v>196.39717999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156">
-        <v>195.57284000000001</v>
+        <v>-164.71109999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>196.34805</v>
-      </c>
-      <c r="E156">
-        <v>196.74733000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-164.55770000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>201.92714000000001</v>
+        <v>-202.8399</v>
       </c>
       <c r="C157">
-        <v>196.39717999999999</v>
-      </c>
-      <c r="E157">
-        <v>196.92971</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-164.50370000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>203.45876999999999</v>
+        <v>-185.4153</v>
       </c>
       <c r="C158">
-        <v>196.74733000000001</v>
-      </c>
-      <c r="E158">
-        <v>197.2936</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-164.17439999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>172.04329999999999</v>
+        <v>-168.63210000000001</v>
       </c>
       <c r="C159">
-        <v>196.92971</v>
-      </c>
-      <c r="E159">
-        <v>197.35776000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>0</v>
+        <v>-163.86109999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>-181.56649999999999</v>
       </c>
       <c r="C160">
-        <v>197.2936</v>
-      </c>
-      <c r="E160">
-        <v>197.44369</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-163.5342</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>159.39529999999999</v>
+        <v>-205.88990000000001</v>
       </c>
       <c r="C161">
-        <v>197.35776000000001</v>
-      </c>
-      <c r="E161">
-        <v>197.52237</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-163.47649999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>176.32943</v>
+        <v>-277.00639999999999</v>
       </c>
       <c r="C162">
-        <v>197.44369</v>
-      </c>
-      <c r="E162">
-        <v>197.65186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>173.94611</v>
+        <v>-163.3982</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>197.52237</v>
-      </c>
-      <c r="E163">
-        <v>197.97725</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-163.2809</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>219.23781</v>
+        <v>-173.31010000000001</v>
       </c>
       <c r="C164">
-        <v>197.65186</v>
-      </c>
-      <c r="E164">
-        <v>197.99453</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-163.21360000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>183.56996000000001</v>
+        <v>-128.5103</v>
       </c>
       <c r="C165">
-        <v>197.97725</v>
-      </c>
-      <c r="E165">
-        <v>197.99603999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-163.10679999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>193.17268999999999</v>
+        <v>-172.56039999999999</v>
       </c>
       <c r="C166">
-        <v>197.99453</v>
-      </c>
-      <c r="E166">
-        <v>198.06513000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-162.99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>187.71602999999999</v>
+        <v>-154.2079</v>
       </c>
       <c r="C167">
-        <v>197.99603999999999</v>
-      </c>
-      <c r="E167">
-        <v>198.15891999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168">
-        <v>207.17507000000001</v>
+        <v>-162.92359999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>0</v>
       </c>
       <c r="C168">
-        <v>198.06513000000001</v>
-      </c>
-      <c r="E168">
-        <v>198.18508</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-162.75729999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>184.69483</v>
+        <v>-194.47800000000001</v>
       </c>
       <c r="C169">
-        <v>198.15891999999999</v>
-      </c>
-      <c r="E169">
-        <v>198.35273000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-162.62739999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>155.43352999999999</v>
+        <v>-161.6489</v>
       </c>
       <c r="C170">
-        <v>198.18508</v>
-      </c>
-      <c r="E170">
-        <v>198.84327999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-162.2979</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>191.20643000000001</v>
+        <v>-163.2809</v>
       </c>
       <c r="C171">
-        <v>198.35273000000001</v>
-      </c>
-      <c r="E171">
-        <v>199.53461999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-162.06659999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>179.80240000000001</v>
+        <v>-176.994</v>
       </c>
       <c r="C172">
-        <v>198.84327999999999</v>
-      </c>
-      <c r="E172">
-        <v>199.8229</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-161.69839999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>195.10684000000001</v>
+        <v>-165.0078</v>
       </c>
       <c r="C173">
-        <v>199.53461999999999</v>
-      </c>
-      <c r="E173">
-        <v>200.02902</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-161.6489</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>234.19810000000001</v>
+        <v>162.7372</v>
       </c>
       <c r="C174">
-        <v>199.8229</v>
-      </c>
-      <c r="E174">
-        <v>200.14447000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-161.6216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>231.39562000000001</v>
+        <v>-169.5874</v>
       </c>
       <c r="C175">
-        <v>200.02902</v>
-      </c>
-      <c r="E175">
-        <v>200.20625000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>0</v>
+        <v>-161.57470000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>-144.16489999999999</v>
       </c>
       <c r="C176">
-        <v>200.14447000000001</v>
-      </c>
-      <c r="E176">
-        <v>200.34913</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>0</v>
+        <v>-161.57409999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>-167.4255</v>
       </c>
       <c r="C177">
-        <v>200.20625000000001</v>
-      </c>
-      <c r="E177">
-        <v>200.64688000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-161.1568</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>187.65472</v>
+        <v>-176.5829</v>
       </c>
       <c r="C178">
-        <v>200.34913</v>
-      </c>
-      <c r="E178">
-        <v>200.64875000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>0</v>
+        <v>-160.34649999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>-150.79509999999999</v>
       </c>
       <c r="C179">
-        <v>200.64688000000001</v>
-      </c>
-      <c r="E179">
-        <v>200.80527000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-160.30670000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>225.66359</v>
+        <v>-180.9425</v>
       </c>
       <c r="C180">
-        <v>200.64875000000001</v>
-      </c>
-      <c r="E180">
-        <v>201.05794</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>0</v>
+        <v>-160.08799999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>-165.51150000000001</v>
       </c>
       <c r="C181">
-        <v>200.80527000000001</v>
-      </c>
-      <c r="E181">
-        <v>201.92714000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-159.91569999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>180.61912000000001</v>
+        <v>164.5462</v>
       </c>
       <c r="C182">
-        <v>201.05794</v>
-      </c>
-      <c r="E182">
-        <v>202.00828999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-159.28460000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>209.89129</v>
+        <v>-143.42769999999999</v>
       </c>
       <c r="C183">
-        <v>201.92714000000001</v>
-      </c>
-      <c r="E183">
-        <v>202.09970000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>0</v>
+        <v>-158.49459999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>-166.33090000000001</v>
       </c>
       <c r="C184">
-        <v>202.00828999999999</v>
-      </c>
-      <c r="E184">
-        <v>202.30561</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-158.34530000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>190.70636999999999</v>
+        <v>-206.4914</v>
       </c>
       <c r="C185">
-        <v>202.09970000000001</v>
-      </c>
-      <c r="E185">
-        <v>202.55825999999999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-158.2784</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>180.91973999999999</v>
+        <v>-166.70150000000001</v>
       </c>
       <c r="C186">
-        <v>202.30561</v>
-      </c>
-      <c r="E186">
-        <v>203.45876999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-157.76179999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>216.39232999999999</v>
+        <v>-194.74600000000001</v>
       </c>
       <c r="C187">
-        <v>202.55825999999999</v>
-      </c>
-      <c r="E187">
-        <v>203.91763</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-157.71469999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>225.06374</v>
+        <v>-148.96379999999999</v>
       </c>
       <c r="C188">
-        <v>203.45876999999999</v>
-      </c>
-      <c r="E188">
-        <v>204.67768000000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-157.59819999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>165.82588999999999</v>
+        <v>-191.2921</v>
       </c>
       <c r="C189">
-        <v>203.91763</v>
-      </c>
-      <c r="E189">
-        <v>205.0958</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-157.27619999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>177.65018000000001</v>
+        <v>169.90440000000001</v>
       </c>
       <c r="C190">
-        <v>204.67768000000001</v>
-      </c>
-      <c r="E190">
-        <v>205.42989</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>0</v>
+        <v>-157.27459999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>-186.2946</v>
       </c>
       <c r="C191">
-        <v>205.0958</v>
-      </c>
-      <c r="E191">
-        <v>205.83597</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-156.73339999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>182.17527999999999</v>
+        <v>-215.7937</v>
       </c>
       <c r="C192">
-        <v>205.42989</v>
-      </c>
-      <c r="E192">
-        <v>206.44492</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-156.6437</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>191.46474000000001</v>
+        <v>-149.0729</v>
       </c>
       <c r="C193">
-        <v>205.83597</v>
-      </c>
-      <c r="E193">
-        <v>206.45661999999999</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-155.91919999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>220.61831000000001</v>
+        <v>-146.45949999999999</v>
       </c>
       <c r="C194">
-        <v>206.44492</v>
-      </c>
-      <c r="E194">
-        <v>206.67509999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-155.49420000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>163.68817999999999</v>
+        <v>-189.19659999999999</v>
       </c>
       <c r="C195">
-        <v>206.45661999999999</v>
-      </c>
-      <c r="E195">
-        <v>207.02483000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-154.66540000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>187.51613</v>
+        <v>-165.44630000000001</v>
       </c>
       <c r="C196">
-        <v>206.67509999999999</v>
-      </c>
-      <c r="E196">
-        <v>207.17507000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-154.5068</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>195.09281999999999</v>
+        <v>-212.4083</v>
       </c>
       <c r="C197">
-        <v>207.02483000000001</v>
-      </c>
-      <c r="E197">
-        <v>207.49599000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-154.2079</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>175.87486000000001</v>
+        <v>186.84880000000001</v>
       </c>
       <c r="C198">
-        <v>207.17507000000001</v>
-      </c>
-      <c r="E198">
-        <v>207.54141000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-154.08240000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>186.19104999999999</v>
+        <v>-165.2698</v>
       </c>
       <c r="C199">
-        <v>207.49599000000001</v>
-      </c>
-      <c r="E199">
-        <v>207.8252</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-152.92699999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>149.79936000000001</v>
+        <v>-146.80940000000001</v>
       </c>
       <c r="C200">
-        <v>207.54141000000001</v>
-      </c>
-      <c r="E200">
-        <v>207.99242000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-151.2079</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>198.84327999999999</v>
+        <v>-185.06909999999999</v>
       </c>
       <c r="C201">
-        <v>207.8252</v>
-      </c>
-      <c r="E201">
-        <v>208.12128999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-151.12960000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>152.91777999999999</v>
+        <v>-159.28460000000001</v>
       </c>
       <c r="C202">
-        <v>207.99242000000001</v>
-      </c>
-      <c r="E202">
-        <v>208.74949000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-150.79509999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>223.71217999999999</v>
+        <v>-124.6157</v>
       </c>
       <c r="C203">
-        <v>208.12128999999999</v>
-      </c>
-      <c r="E203">
-        <v>209.89129</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>176.80615</v>
+        <v>-150.48869999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>208.74949000000001</v>
-      </c>
-      <c r="E204">
-        <v>210.81753</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-149.0729</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>207.54141000000001</v>
+        <v>-183.56720000000001</v>
       </c>
       <c r="C205">
-        <v>209.89129</v>
-      </c>
-      <c r="E205">
-        <v>211.87501</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-148.96379999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>195.86928</v>
+        <v>-198.96449999999999</v>
       </c>
       <c r="C206">
-        <v>210.81753</v>
-      </c>
-      <c r="E206">
-        <v>212.50459000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-148.41499999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>211.87501</v>
+        <v>131.41820000000001</v>
       </c>
       <c r="C207">
-        <v>211.87501</v>
-      </c>
-      <c r="E207">
-        <v>212.50914</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <v>177.74897999999999</v>
+        <v>-147.8518</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>212.50459000000001</v>
-      </c>
-      <c r="E208">
-        <v>212.56476000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-146.8366</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>223.8982</v>
+        <v>-196.0557</v>
       </c>
       <c r="C209">
-        <v>212.50914</v>
-      </c>
-      <c r="E209">
-        <v>213.06066000000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-146.80940000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>208.12128999999999</v>
+        <v>-202.8279</v>
       </c>
       <c r="C210">
-        <v>212.56476000000001</v>
-      </c>
-      <c r="E210">
-        <v>213.85756000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-146.45949999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>213.85756000000001</v>
+        <v>-164.71109999999999</v>
       </c>
       <c r="C211">
-        <v>213.06066000000001</v>
-      </c>
-      <c r="E211">
-        <v>214.35604000000001</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-146.31649999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>156.97354999999999</v>
+        <v>-140.1387</v>
       </c>
       <c r="C212">
-        <v>213.85756000000001</v>
-      </c>
-      <c r="E212">
-        <v>215.14106000000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-145.9725</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>178.9495</v>
+        <v>-184.423</v>
       </c>
       <c r="C213">
-        <v>214.35604000000001</v>
-      </c>
-      <c r="E213">
-        <v>215.32330999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-144.44290000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>156.48681999999999</v>
+        <v>-176.7473</v>
       </c>
       <c r="C214">
-        <v>215.14106000000001</v>
-      </c>
-      <c r="E214">
-        <v>215.48278999999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-144.16489999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>184.85755</v>
+        <v>-214.8683</v>
       </c>
       <c r="C215">
-        <v>215.32330999999999</v>
-      </c>
-      <c r="E215">
-        <v>216.09837999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-144.05860000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>202.30561</v>
+        <v>217.39609999999999</v>
       </c>
       <c r="C216">
-        <v>215.48278999999999</v>
-      </c>
-      <c r="E216">
-        <v>216.39232999999999</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-143.9177</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>217.3244</v>
+        <v>-175.5419</v>
       </c>
       <c r="C217">
-        <v>216.09837999999999</v>
-      </c>
-      <c r="E217">
-        <v>216.59227999999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-143.89320000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>189.23265000000001</v>
+        <v>-172.12909999999999</v>
       </c>
       <c r="C218">
-        <v>216.39232999999999</v>
-      </c>
-      <c r="E218">
-        <v>217.3244</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-143.78</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>215.32330999999999</v>
+        <v>-197.20189999999999</v>
       </c>
       <c r="C219">
-        <v>216.59227999999999</v>
-      </c>
-      <c r="E219">
-        <v>217.4074</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>0</v>
+        <v>-143.53229999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>-189.55260000000001</v>
       </c>
       <c r="C220">
-        <v>217.3244</v>
-      </c>
-      <c r="E220">
-        <v>218.22001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-143.42769999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>138.64000999999999</v>
+        <v>-206.06360000000001</v>
       </c>
       <c r="C221">
-        <v>217.4074</v>
-      </c>
-      <c r="E221">
-        <v>219.23781</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>0</v>
+        <v>-143.0549</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>-168.61529999999999</v>
       </c>
       <c r="C222">
-        <v>218.22001</v>
-      </c>
-      <c r="E222">
-        <v>219.45563999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-140.1387</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>179.31733</v>
+        <v>-157.27459999999999</v>
       </c>
       <c r="C223">
-        <v>219.23781</v>
-      </c>
-      <c r="E223">
-        <v>219.50106</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-139.18680000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>159.37454</v>
+        <v>136.4666</v>
       </c>
       <c r="C224">
-        <v>219.45563999999999</v>
-      </c>
-      <c r="E224">
-        <v>219.56084999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-139.1593</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>215.14106000000001</v>
+        <v>-184.49109999999999</v>
       </c>
       <c r="C225">
-        <v>219.50106</v>
-      </c>
-      <c r="E225">
-        <v>219.81358</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-137.929</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>187.80020999999999</v>
+        <v>-176.36199999999999</v>
       </c>
       <c r="C226">
-        <v>219.56084999999999</v>
-      </c>
-      <c r="E226">
-        <v>219.86467999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-137.7801</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>195.50794999999999</v>
+        <v>-161.57409999999999</v>
       </c>
       <c r="C227">
-        <v>219.81358</v>
-      </c>
-      <c r="E227">
-        <v>220.61831000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-137.60509999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>181.82472999999999</v>
+        <v>-177.94630000000001</v>
       </c>
       <c r="C228">
-        <v>219.86467999999999</v>
-      </c>
-      <c r="E228">
-        <v>221.23139</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-137.05510000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>183.6953</v>
+        <v>-172.3879</v>
       </c>
       <c r="C229">
-        <v>220.61831000000001</v>
-      </c>
-      <c r="E229">
-        <v>221.78380000000001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-136.12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>198.15891999999999</v>
+        <v>-172.095</v>
       </c>
       <c r="C230">
-        <v>221.23139</v>
-      </c>
-      <c r="E230">
-        <v>222.04769999999999</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>0</v>
+        <v>-134.35720000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>-178.56659999999999</v>
       </c>
       <c r="C231">
-        <v>221.78380000000001</v>
-      </c>
-      <c r="E231">
-        <v>223.00505999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-134.29159999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>202.55825999999999</v>
+        <v>152.90710000000001</v>
       </c>
       <c r="C232">
-        <v>222.04769999999999</v>
-      </c>
-      <c r="E232">
-        <v>223.15341000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-132.85400000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>0</v>
       </c>
       <c r="C233">
-        <v>223.00505999999999</v>
-      </c>
-      <c r="E233">
-        <v>223.71217999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-132.14689999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>176.20312000000001</v>
+        <v>-176.41589999999999</v>
       </c>
       <c r="C234">
-        <v>223.15341000000001</v>
-      </c>
-      <c r="E234">
-        <v>223.8982</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-132.0059</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>173.75702999999999</v>
+        <v>-162.2979</v>
       </c>
       <c r="C235">
-        <v>223.71217999999999</v>
-      </c>
-      <c r="E235">
-        <v>224.08094</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-131.98859999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>141.42246</v>
+        <v>-161.6216</v>
       </c>
       <c r="C236">
-        <v>223.8982</v>
-      </c>
-      <c r="E236">
-        <v>224.34228999999999</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-131.15979999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>206.44492</v>
+        <v>-182.62960000000001</v>
       </c>
       <c r="C237">
-        <v>224.08094</v>
-      </c>
-      <c r="E237">
-        <v>224.94001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-130.52019999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>172.39672999999999</v>
+        <v>-173.25909999999999</v>
       </c>
       <c r="C238">
-        <v>224.34228999999999</v>
-      </c>
-      <c r="E238">
-        <v>225.06374</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A239">
-        <v>177.01227</v>
+        <v>-130.41069999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>224.94001</v>
-      </c>
-      <c r="E239">
-        <v>225.66359</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-128.5103</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>219.86467999999999</v>
+        <v>-200.2</v>
       </c>
       <c r="C240">
-        <v>225.06374</v>
-      </c>
-      <c r="E240">
-        <v>227.26331999999999</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>0</v>
+        <v>-127.20189999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>-131.98859999999999</v>
       </c>
       <c r="C241">
-        <v>225.66359</v>
-      </c>
-      <c r="E241">
-        <v>227.41976</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-125.7248</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>181.23446000000001</v>
+        <v>-173.49029999999999</v>
       </c>
       <c r="C242">
-        <v>227.26331999999999</v>
-      </c>
-      <c r="E242">
-        <v>227.51420999999999</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-125.5979</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>156.27619999999999</v>
+        <v>-174.11789999999999</v>
       </c>
       <c r="C243">
-        <v>227.41976</v>
-      </c>
-      <c r="E243">
-        <v>229.69704999999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>0</v>
+        <v>-124.973</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>-143.78</v>
       </c>
       <c r="C244">
-        <v>227.51420999999999</v>
-      </c>
-      <c r="E244">
-        <v>230.20715000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-124.6157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>100.955645</v>
+        <v>-192.1052</v>
       </c>
       <c r="C245">
-        <v>229.69704999999999</v>
-      </c>
-      <c r="E245">
-        <v>230.89599999999999</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A246">
-        <v>163.63176000000001</v>
+        <v>-124.04170000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>230.20715000000001</v>
-      </c>
-      <c r="E246">
-        <v>231.39562000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-124.0217</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>164.60034999999999</v>
+        <v>-155.91919999999999</v>
       </c>
       <c r="C247">
-        <v>230.89599999999999</v>
-      </c>
-      <c r="E247">
-        <v>231.72280000000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-122.5442</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>200.64875000000001</v>
+        <v>-156.6437</v>
       </c>
       <c r="C248">
-        <v>231.39562000000001</v>
-      </c>
-      <c r="E248">
-        <v>234.19810000000001</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-120.2871</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>219.81358</v>
+        <v>-157.27619999999999</v>
       </c>
       <c r="C249">
-        <v>231.72280000000001</v>
-      </c>
-      <c r="E249">
-        <v>239.06613999999999</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-117.0158</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>207.8252</v>
+        <v>-144.44290000000001</v>
       </c>
       <c r="C250">
-        <v>234.19810000000001</v>
-      </c>
-      <c r="E250">
-        <v>240.00281000000001</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-87.343199999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>193.1447</v>
+        <v>147.86000000000001</v>
       </c>
       <c r="C251">
-        <v>239.06613999999999</v>
-      </c>
-      <c r="E251">
-        <v>244.50199000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252">
-        <v>224.34228999999999</v>
+        <v>-85.022000000000006</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>240.00281000000001</v>
-      </c>
-      <c r="E252">
-        <v>247.77945</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+        <v>131.41820000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>176.02459999999999</v>
+        <v>-177.8253</v>
       </c>
       <c r="C253">
-        <v>244.50199000000001</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+        <v>134.83410000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>197.2936</v>
+        <v>-175.60159999999999</v>
       </c>
       <c r="C254">
-        <v>247.77945</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A255">
-        <v>224.94001</v>
+        <v>136.4666</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>0</v>
       </c>
       <c r="C255">
-        <v>339.98596500000002</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+        <v>147.86000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>191.90226000000001</v>
+        <v>-190.1326</v>
       </c>
       <c r="C256">
-        <v>369.864755</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+        <v>149.99449999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>-171.28149999999999</v>
+      </c>
+      <c r="C257">
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>206.45661999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-184.92089999999999</v>
+      </c>
+      <c r="C258">
+        <v>151.5307</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>197.52237</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-137.929</v>
+      </c>
+      <c r="C259">
+        <v>152.90710000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>164.21772999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-164.92189999999999</v>
+      </c>
+      <c r="C260">
+        <v>161.43350000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>167.85524000000001</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-175.851</v>
+      </c>
+      <c r="C261">
+        <v>162.55789999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>244.50199000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-155.49420000000001</v>
+      </c>
+      <c r="C262">
+        <v>162.7372</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>194.69737000000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-168.26859999999999</v>
+      </c>
+      <c r="C263">
+        <v>162.78749999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>190.95448999999999</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-162.75729999999999</v>
+      </c>
+      <c r="C264">
+        <v>164.0547</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>185.85410999999999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-127.20189999999999</v>
+      </c>
+      <c r="C265">
+        <v>164.5462</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>-188.4408</v>
+      </c>
+      <c r="C266">
+        <v>169.35169999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>231.72280000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-189.45099999999999</v>
+      </c>
+      <c r="C267">
+        <v>169.90440000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>185.34329</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-189.44069999999999</v>
+      </c>
+      <c r="C268">
+        <v>171.84950000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>207.02483000000001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+        <v>161.43350000000001</v>
+      </c>
+      <c r="C269">
+        <v>174.47929999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>205.83597</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-219.03440000000001</v>
+      </c>
+      <c r="C270">
+        <v>183.02719999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C271">
+        <v>186.84880000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>212.50914</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-172.7585</v>
+      </c>
+      <c r="C272">
+        <v>188.7629</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>-158.49459999999999</v>
+      </c>
+      <c r="C273">
+        <v>191.30170000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>227.26331999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-150.48869999999999</v>
+      </c>
+      <c r="C274">
+        <v>198.4725</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>216.09837999999999</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-132.14689999999999</v>
+      </c>
+      <c r="C275">
+        <v>199.7569</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>180.63413</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-162.99</v>
+      </c>
+      <c r="C276">
+        <v>205.4555</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>157.3706</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-169.85120000000001</v>
+      </c>
+      <c r="C277">
+        <v>217.39609999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>200.64688000000001</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+        <v>162.78749999999999</v>
+      </c>
+      <c r="C278">
+        <v>223.7508</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C279" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>205.0958</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-130.41069999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>197.44369</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-120.2871</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>195.75397000000001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-171.8417</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>185.39636999999999</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-180.7133</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>212.56476000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-176.3202</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>221.23139</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-171.8288</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>223.00505999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+        <v>-163.86109999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>164.0547</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>227.41976</v>
+        <v>-131.15979999999999</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>195.25196</v>
+        <v>-134.29159999999999</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>204.67768000000001</v>
+        <v>-177.69900000000001</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>191.34718000000001</v>
+        <v>-268.35410000000002</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>182.85024000000001</v>
+        <v>-154.5068</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>161.94313</v>
+        <v>-167.06120000000001</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>188.26786000000001</v>
+        <v>-136.12</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>0</v>
+      <c r="A295">
+        <v>-187.417</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>170.67867000000001</v>
+        <v>-170.50640000000001</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>151.12891999999999</v>
+        <v>-134.35720000000001</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>196.39717999999999</v>
+        <v>-179.40039999999999</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>179.52197000000001</v>
+        <v>-187.3903</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302">
-        <v>167.24265</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303">
-        <v>182.42814000000001</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E4:E254">
-    <sortCondition ref="E4:E254"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C16390">
+    <sortCondition ref="C1:C16390"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8871,21 +7290,21 @@
       <c r="C5">
         <v>213.06066000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f>COUNTIF(A4:A303,A5)</f>
         <v>47</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:300" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -8894,21 +7313,21 @@
       <c r="C6">
         <v>213.85756000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <f>COUNT(C4:C256)</f>
         <v>253</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:300" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -8917,21 +7336,21 @@
       <c r="C7">
         <v>214.35604000000001</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f>MIN(C4:C256)</f>
         <v>71.076855000000094</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
       <c r="P7">
         <f>_xlfn.QUARTILE.INC(C4:C256,0)</f>
         <v>71.076855000000094</v>
@@ -8944,21 +7363,21 @@
       <c r="C8">
         <v>215.14106000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f>MAX(C4:C256)</f>
         <v>369.864755</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:300" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -8967,21 +7386,21 @@
       <c r="C9">
         <v>215.32330999999999</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <f>I8-I7</f>
         <v>298.78789999999992</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:300" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -8990,21 +7409,21 @@
       <c r="C10">
         <v>215.48278999999999</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>6</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f>_xlfn.QUARTILE.INC(C4:C256,1)</f>
         <v>174.98589999999999</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -9013,22 +7432,22 @@
       <c r="C11">
         <v>216.09837999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>7</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <f>MEDIAN(C4:C256)</f>
         <v>191.20643000000001</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="Q11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -9037,22 +7456,22 @@
       <c r="C12">
         <v>216.39232999999999</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>8</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <f>_xlfn.QUARTILE.INC(C4:C256,3)</f>
         <v>205.83597</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="Q12" s="4"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -9061,22 +7480,22 @@
       <c r="C13">
         <v>216.59227999999999</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>9</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <f>I12-I11</f>
         <v>14.629539999999992</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="Q13" s="4"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -9085,22 +7504,22 @@
       <c r="C14">
         <v>217.3244</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>10</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <f>AVERAGE(C4:C256)</f>
         <v>190.71426509881425</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="Q14" s="4"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -9109,22 +7528,22 @@
       <c r="C15">
         <v>217.4074</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>11</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <f>_xlfn.STDEV.S(C4:C256)</f>
         <v>28.526739179766274</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="Q15" s="4"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:300" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -9133,23 +7552,23 @@
       <c r="C16">
         <v>218.22001</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
+      <c r="G16" s="2"/>
+      <c r="H16" s="3">
         <v>12</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <f>_xlfn.VAR.S(C4:C256)</f>
         <v>813.7748482304122</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="Q16" s="4"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -9158,22 +7577,22 @@
       <c r="C17">
         <v>219.23781</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>13</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f>KURT(C4:C256)</f>
         <v>9.0932953243799552</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="Q17" s="4"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -9182,22 +7601,22 @@
       <c r="C18">
         <v>219.45563999999999</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>14</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <f>SKEW(C9:C256)</f>
         <v>1.1288456894520253</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="Q18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -9206,22 +7625,22 @@
       <c r="C19">
         <v>219.50106</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>15</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <f>I15/SQRT(I6)</f>
         <v>1.7934607261952493</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="Q19" s="4"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -9230,22 +7649,22 @@
       <c r="C20">
         <v>219.56084999999999</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>16</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="8">
         <f>_xlfn.PERCENTILE.INC(C4:C256,0.63)</f>
         <v>197.50348679999999</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="Q20" s="4"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
@@ -9254,22 +7673,22 @@
       <c r="C21">
         <v>219.81358</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>17</v>
       </c>
-      <c r="I21" s="10" t="e">
+      <c r="I21" s="8" t="e">
         <f>_xlfn.MODE.SNGL(C4:C256)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
-      <c r="Q21" s="4"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -9278,22 +7697,22 @@
       <c r="C22">
         <v>219.86467999999999</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>18</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <f>COUNTIF(C4:C256,I21)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
-      <c r="Q22" s="4"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -9302,19 +7721,19 @@
       <c r="C23">
         <v>220.61831000000001</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>19</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="8"/>
+      <c r="J23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="Q23" s="11"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -9323,19 +7742,19 @@
       <c r="C24">
         <v>221.23139</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>20</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="21" t="s">
+      <c r="I24" s="8"/>
+      <c r="J24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
-      <c r="Q24" s="4"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -9344,19 +7763,19 @@
       <c r="C25">
         <v>221.78380000000001</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>21</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="21" t="s">
+      <c r="I25" s="8"/>
+      <c r="J25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="23"/>
-      <c r="Q25" s="4"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -9365,19 +7784,19 @@
       <c r="C26">
         <v>222.04769999999999</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>22</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="21" t="s">
+      <c r="I26" s="8"/>
+      <c r="J26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
-      <c r="Q26" s="4"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -9386,8 +7805,8 @@
       <c r="C27">
         <v>223.00505999999999</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -9396,12 +7815,12 @@
       <c r="C28">
         <v>223.15341000000001</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="12"/>
       <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="N28" s="15" t="s">
+      <c r="L28" s="11"/>
+      <c r="N28" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9412,10 +7831,10 @@
       <c r="C29">
         <v>223.71217999999999</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="13"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -9424,8 +7843,8 @@
       <c r="C30">
         <v>223.8982</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.4">
       <c r="A31">
@@ -9434,12 +7853,12 @@
       <c r="C31">
         <v>224.08094</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="14"/>
       <c r="I31" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="N31" s="15" t="s">
+      <c r="L31" s="11"/>
+      <c r="N31" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9450,8 +7869,8 @@
       <c r="C32">
         <v>224.34228999999999</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="H32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -9460,7 +7879,7 @@
       <c r="C33">
         <v>224.94001</v>
       </c>
-      <c r="L33" s="13"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -9469,15 +7888,15 @@
       <c r="C34">
         <v>225.06374</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="11"/>
       <c r="I34" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="N34" s="15" t="s">
+      <c r="L34" s="11"/>
+      <c r="N34" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="17"/>
+      <c r="O34" s="15"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -9486,8 +7905,8 @@
       <c r="C35">
         <v>225.66359</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="H35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
@@ -9496,8 +7915,8 @@
       <c r="C36">
         <v>227.26331999999999</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="L36" s="13"/>
+      <c r="H36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.4">
       <c r="A37">
@@ -9506,8 +7925,8 @@
       <c r="C37">
         <v>227.41976</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="L37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -9516,11 +7935,11 @@
       <c r="C38">
         <v>227.51420999999999</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="11"/>
       <c r="I38" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="13"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
@@ -9529,8 +7948,8 @@
       <c r="C39">
         <v>229.69704999999999</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="H39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
